--- a/data/Wine grape disease .xlsx
+++ b/data/Wine grape disease .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/Ph.D/Wine grape Disease/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Wine-Grape-Disease/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B08763C-DF96-964C-866D-9391703CE535}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461520FC-062D-164A-93EF-DED37EFDA652}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{D9A28D87-567C-8C4B-BA51-00C05DE645E6}"/>
+    <workbookView xWindow="3420" yWindow="580" windowWidth="25600" windowHeight="14580" xr2:uid="{D9A28D87-567C-8C4B-BA51-00C05DE645E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1979,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12784771-90DA-B749-9BCD-241E7235B222}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="J13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
